--- a/Theta_Tau/BioPages/BrotherBios/MemberBios.xlsx
+++ b/Theta_Tau/BioPages/BrotherBios/MemberBios.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deang_000\Documents\GitHub\thetatau\ThetaTauWebsite\BioPages\BrotherBios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deang_000\Documents\GitHub\thetatau\ThetaTauWebsite\Theta_Tau\BioPages\BrotherBios\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -167,9 +167,6 @@
     <t>Alisa Howell</t>
   </si>
   <si>
-    <t>Anthony Addington(no photo)</t>
-  </si>
-  <si>
     <t>Derek Smith(no photo)</t>
   </si>
   <si>
@@ -183,6 +180,9 @@
   </si>
   <si>
     <t>Anothony Ellis(no photo)</t>
+  </si>
+  <si>
+    <t>Anthony Addington</t>
   </si>
 </sst>
 </file>
@@ -552,7 +552,7 @@
   <dimension ref="A1:C1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -685,7 +685,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>27</v>
@@ -696,7 +696,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>29</v>
@@ -735,7 +735,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B17" s="6"/>
     </row>
@@ -744,19 +744,19 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B19" s="6"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B20" s="6"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B21" s="6"/>
     </row>
